--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Weather Dynamics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weather Dynamics" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -116,14 +116,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="5"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:t>Weather</a:t>
             </a:r>
@@ -137,7 +137,7 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:solidFill>
                 <a:srgbClr val="FF4500"/>
               </a:solidFill>
@@ -147,19 +147,19 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'Weather Dynamics'!$A$3:$A$21</f>
+              <f>'Weather Dynamics'!$A$3:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Weather Dynamics'!$B$3:$B$21</f>
+              <f>'Weather Dynamics'!$B$3:$B$22</f>
             </numRef>
           </val>
         </ser>
@@ -167,7 +167,7 @@
           <idx val="1"/>
           <order val="1"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:solidFill>
                 <a:srgbClr val="1E90FF"/>
               </a:solidFill>
@@ -177,19 +177,19 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'Weather Dynamics'!$A$3:$A$21</f>
+              <f>'Weather Dynamics'!$A$3:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Weather Dynamics'!$C$3:$C$21</f>
+              <f>'Weather Dynamics'!$C$3:$C$22</f>
             </numRef>
           </val>
         </ser>
@@ -205,8 +205,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:r>
                   <a:t>Date</a:t>
                 </a:r>
@@ -229,8 +229,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:r>
                   <a:t>Temperature</a:t>
                 </a:r>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -265,9 +265,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -560,12 +560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,87 +596,87 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="n">
-        <v>44299</v>
+        <v>44331</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="n">
-        <v>44300</v>
+        <v>44332</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="n">
-        <v>44301</v>
+        <v>44333</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="n">
-        <v>44302</v>
+        <v>44334</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="n">
-        <v>44303</v>
+        <v>44335</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="n">
-        <v>44304</v>
+        <v>44336</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="n">
-        <v>44305</v>
+        <v>44337</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="n">
-        <v>44306</v>
+        <v>44338</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>12</v>
@@ -684,123 +684,134 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="n">
-        <v>44307</v>
+        <v>44339</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="n">
-        <v>44308</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>3</v>
+      <c r="A12" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="n">
-        <v>44309</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>4</v>
+      <c r="A13" s="3" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="n">
-        <v>44310</v>
+        <v>44342</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="n">
-        <v>44311</v>
+        <v>44343</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="n">
-        <v>44312</v>
+        <v>44344</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="n">
-        <v>44313</v>
+        <v>44345</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="n">
-        <v>44314</v>
+        <v>44346</v>
       </c>
       <c r="B18" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="n">
-        <v>44315</v>
+        <v>44347</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="n">
-        <v>44317</v>
+        <v>44349</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>4</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -809,6 +820,6 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>